--- a/src/main/resources/Bakery data.xlsx
+++ b/src/main/resources/Bakery data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROHAN.DESKTOP-0TJCEJ6\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D03943A6-EBEE-412F-B045-5AA16D1FBAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDFCECF-FFCD-4F47-A99E-047B85E937D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F7B38FB-32C5-425F-AE79-478C652D98DB}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>branches</t>
   </si>
@@ -97,24 +94,12 @@
     <t>qty_stock</t>
   </si>
   <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>product_id</t>
-  </si>
-  <si>
     <t>qty</t>
   </si>
   <si>
-    <t>cust_id</t>
-  </si>
-  <si>
     <t>purchase_date</t>
   </si>
   <si>
-    <t>customer_id</t>
-  </si>
-  <si>
     <t>customers</t>
   </si>
   <si>
@@ -136,7 +121,25 @@
     <t>order_Product</t>
   </si>
   <si>
-    <t>brach_id</t>
+    <t>id (pk)</t>
+  </si>
+  <si>
+    <t>order_id (FK)</t>
+  </si>
+  <si>
+    <t>order_id (PK)</t>
+  </si>
+  <si>
+    <t>product_id (FK)</t>
+  </si>
+  <si>
+    <t>brach_id (FK)</t>
+  </si>
+  <si>
+    <t>customer_id (PK)</t>
+  </si>
+  <si>
+    <t>cust_id (FK)</t>
   </si>
 </sst>
 </file>
@@ -497,54 +500,55 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -552,19 +556,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>250</v>
@@ -578,19 +582,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>500</v>
@@ -604,19 +608,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <v>1000</v>
@@ -630,10 +634,10 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>220</v>
@@ -647,10 +651,10 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>480</v>
@@ -664,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <v>960</v>
@@ -681,10 +685,10 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>300</v>
@@ -698,10 +702,10 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>600</v>
@@ -715,10 +719,10 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11">
         <v>1200</v>
@@ -729,39 +733,39 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
       <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
         <v>33</v>
-      </c>
-      <c r="K15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -783,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -811,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -839,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -867,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -893,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I20">
         <v>2</v>
